--- a/天然气/eta/天然气TTF连1价格Trend-F0.1_月度数据.xlsx
+++ b/天然气/eta/天然气TTF连1价格Trend-F0.1_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>28.6334</v>
+        <v>28.6291</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>28.9197</v>
+        <v>29.0231</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.3572</v>
+        <v>30.3236</v>
       </c>
       <c r="C4" t="n">
-        <v>30.065</v>
+        <v>30.1489</v>
       </c>
     </row>
     <row r="5">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.3793</v>
+        <v>31.4415</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.6673</v>
+        <v>32.712</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.9362</v>
+        <v>33.9642</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.3711</v>
+        <v>35.3822</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.7321</v>
+        <v>36.7311</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.169</v>
+        <v>38.167</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.4926</v>
+        <v>39.4902</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.4146</v>
+        <v>40.4111</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.9252</v>
+        <v>40.9207</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.2588</v>
+        <v>41.254</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.2993</v>
+        <v>41.2953</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.8032</v>
+        <v>40.8006</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.4279</v>
+        <v>39.4265</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37.6667</v>
+        <v>37.6659</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.7427</v>
+        <v>35.7425</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.8028</v>
+        <v>33.8031</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32.4222</v>
+        <v>32.4228</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.3986</v>
+        <v>31.3997</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.7493</v>
+        <v>30.7506</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30.5753</v>
+        <v>30.5768</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.1229</v>
+        <v>31.1243</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.9023</v>
+        <v>31.9035</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32.5694</v>
+        <v>32.5709</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.4583</v>
+        <v>33.4604</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>34.3808</v>
+        <v>34.3834</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.0604</v>
+        <v>35.0625</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.2825</v>
+        <v>35.2806</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.05</v>
+        <v>35.0388</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.2573</v>
+        <v>36.2492</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.0688</v>
+        <v>47.1399</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>61.677</v>
+        <v>61.7614</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.6317</v>
+        <v>73.6947</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83.2197</v>
+        <v>83.2766</v>
       </c>
       <c r="C37" t="inlineStr"/>
     </row>
